--- a/hecCalc/2023/documentum/Total BOQ.xlsx
+++ b/hecCalc/2023/documentum/Total BOQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\hecCalc\2023\documentum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A730D-E707-4F25-9A6D-2AE9142BF18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2BB4C6-290D-4551-BDA7-C88F512467F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D46DD879-F62C-4FF3-8272-253F3C610267}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ" sheetId="1" r:id="rId1"/>
@@ -37458,10 +37458,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K245"/>
+  <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -38568,71 +38568,71 @@
       <c r="K70" s="13"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="10"/>
@@ -38713,31 +38713,17 @@
       <c r="K79" s="13"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="10"/>
@@ -38753,17 +38739,31 @@
       <c r="K81" s="13"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
+      <c r="A82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="10"/>
@@ -38961,31 +38961,17 @@
       <c r="K97" s="13"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="10"/>
@@ -39001,17 +38987,31 @@
       <c r="K99" s="13"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
+      <c r="A100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="10"/>
@@ -39105,31 +39105,17 @@
       <c r="K107" s="13"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="10"/>
@@ -39145,17 +39131,31 @@
       <c r="K109" s="13"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
+      <c r="A110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
@@ -39223,31 +39223,17 @@
       <c r="K115" s="13"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="10"/>
@@ -39263,17 +39249,31 @@
       <c r="K117" s="13"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
+      <c r="A118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="10"/>
@@ -39328,31 +39328,17 @@
       <c r="K122" s="13"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="10"/>
@@ -39472,17 +39458,31 @@
       <c r="K132" s="13"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
+      <c r="A133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="10"/>
@@ -39628,31 +39628,17 @@
       <c r="K144" s="13"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
@@ -39772,17 +39758,31 @@
       <c r="K154" s="13"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="10"/>
-      <c r="B155" s="10"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="11"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="13"/>
+      <c r="A155" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="9"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="10"/>
@@ -39824,31 +39824,17 @@
       <c r="K158" s="13"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E159" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
@@ -39942,31 +39928,17 @@
       <c r="K166" s="13"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="10"/>
@@ -39982,17 +39954,31 @@
       <c r="K168" s="13"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A169" s="10"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="10"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="13"/>
-      <c r="K169" s="13"/>
+      <c r="A169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="10"/>
@@ -40086,17 +40072,31 @@
       <c r="K176" s="13"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="12"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="10"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="13"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="13"/>
+      <c r="A177" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" s="9"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="10"/>
@@ -40268,31 +40268,17 @@
       <c r="K190" s="13"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A191" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D191" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E191" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H191" s="9"/>
-      <c r="I191" s="9"/>
-      <c r="J191" s="9"/>
-      <c r="K191" s="9"/>
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+      <c r="K191" s="13"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
@@ -40347,58 +40333,30 @@
       <c r="K195" s="13"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E196" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5"/>
-      <c r="K196" s="5"/>
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+      <c r="K196" s="13"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H197" s="9"/>
-      <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
-      <c r="K197" s="9"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+      <c r="K197" s="13"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="10"/>
@@ -40440,17 +40398,31 @@
       <c r="K200" s="13"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A201" s="10"/>
-      <c r="B201" s="10"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="10"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="13"/>
-      <c r="K201" s="13"/>
+      <c r="A201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="9"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="10"/>
@@ -40512,7 +40484,7 @@
         <v>18</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D206" s="4" t="s">
         <v>18</v>
@@ -40539,7 +40511,7 @@
         <v>18</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>18</v>
@@ -40676,71 +40648,71 @@
       <c r="K216" s="13"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="11"/>
+      <c r="D217" s="12"/>
+      <c r="E217" s="12"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+      <c r="K217" s="13"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B218" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>43</v>
+      <c r="C218" s="3" t="s">
+        <v>41</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D218" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E217" s="4" t="s">
+      <c r="E218" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F217" s="3" t="s">
+      <c r="F218" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G217" s="2" t="s">
+      <c r="G218" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="6" t="s">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="D219" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E219" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F218" s="7" t="s">
+      <c r="F219" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G218" s="6" t="s">
+      <c r="G219" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H218" s="9"/>
-      <c r="I218" s="9"/>
-      <c r="J218" s="9"/>
-      <c r="K218" s="9"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="13"/>
-      <c r="I219" s="13"/>
-      <c r="J219" s="13"/>
-      <c r="K219" s="13"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="9"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="10"/>
@@ -40867,7 +40839,7 @@
         <v>18</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>18</v>
@@ -41018,84 +40990,84 @@
       <c r="K238" s="13"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
+      <c r="K239" s="13"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="12"/>
+      <c r="E240" s="12"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="13"/>
+      <c r="K240" s="13"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C239" s="3" t="s">
-        <v>45</v>
+      <c r="C241" s="3" t="s">
+        <v>44</v>
       </c>
-      <c r="D239" s="4" t="s">
+      <c r="D241" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E239" s="4" t="s">
+      <c r="E241" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F239" s="3" t="s">
+      <c r="F241" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G239" s="2" t="s">
+      <c r="G241" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A240" s="6" t="s">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B242" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C242" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D240" s="8" t="s">
+      <c r="D242" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E240" s="8" t="s">
+      <c r="E242" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="F242" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G240" s="6" t="s">
+      <c r="G242" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="9"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="10"/>
-      <c r="B241" s="10"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="10"/>
-      <c r="H241" s="13"/>
-      <c r="I241" s="13"/>
-      <c r="J241" s="13"/>
-      <c r="K241" s="13"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A242" s="10"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="11"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="11"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="13"/>
-      <c r="I242" s="13"/>
-      <c r="J242" s="13"/>
-      <c r="K242" s="13"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="10"/>
@@ -41136,6 +41108,190 @@
       <c r="J245" s="13"/>
       <c r="K245" s="13"/>
     </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+      <c r="J246" s="13"/>
+      <c r="K246" s="13"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="12"/>
+      <c r="E247" s="12"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+      <c r="K247" s="13"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="13"/>
+      <c r="I248" s="13"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="13"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="12"/>
+      <c r="E249" s="12"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="13"/>
+      <c r="I249" s="13"/>
+      <c r="J249" s="13"/>
+      <c r="K249" s="13"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="12"/>
+      <c r="E250" s="12"/>
+      <c r="F250" s="11"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="13"/>
+      <c r="I250" s="13"/>
+      <c r="J250" s="13"/>
+      <c r="K250" s="13"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E252" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H252" s="9"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="9"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="12"/>
+      <c r="E253" s="12"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="13"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="13"/>
+      <c r="K253" s="13"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="12"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+      <c r="K254" s="13"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="13"/>
+      <c r="I255" s="13"/>
+      <c r="J255" s="13"/>
+      <c r="K255" s="13"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="13"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="13"/>
+      <c r="K256" s="13"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="13"/>
+      <c r="K257" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:K2"/>
@@ -41153,4 +41309,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="26" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a11ee6e5-21a0-48c4-8af4-6cc1347f763e}" enabled="1" method="Standard" siteId="{a27ddcc1-bea5-4183-aa29-fd96d7612a1d}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>